--- a/pred_ohlcv/54_21/2020-01-22 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>15218.57581393</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>15218.57581393</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>15218.57581393</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>15465.79341393</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>15465.79341393</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>15465.79341393</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>15480.80991393</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>15480.80991393</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>15480.80991393</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>16194.86421393</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>15569.67561393</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>22416.58111393</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>21930.89951393</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>21927.89951393</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>31385.5301582</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>37156.10631393</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>37156.10631393</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>44320.64511393</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>55169.94931393</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>59865.48901829001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>65644.42371829001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>65805.85241829001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>65785.99361829001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>64785.99361829001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>65120.11101829002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>65120.11101829002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>64597.43411829002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>64597.43411829002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>63858.64021829002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>51727.46101829002</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>56084.53271829002</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>61814.51871829002</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>61810.58321829002</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>80558.65311829002</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>80561.65311829002</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>74854.04931829002</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>74856.04931829002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>74858.04931829002</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>74637.70881829002</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>74637.70881829002</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>74639.70881829002</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>114146.66891829</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>112493.04451829</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>112697.95451829</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>112697.95451829</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>112090.95451829</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>112090.95451829</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>110341.15141829</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>110352.15141829</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>130777.9595879</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>125512.3552879</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>126600.3309879</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>125600.3309879</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>125600.3309879</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>125600.3309879</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>123290.2910879</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>123290.2910879</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>122690.2511879</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>122223.2511879</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>120986.5661879</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>124336.1267879</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>124351.29920169</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>119351.29920169</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>123170.10920169</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>123017.06800169</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>123017.06800169</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>117727.89510169</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>115668.13769501</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>115679.56773616</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>113181.00523616</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>112453.90563616</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-356263.7244163499</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-353670.2632163499</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-353670.2632163499</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-348490.5806163499</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-499201.6867659601</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-547427.4131659601</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-547379.8304659601</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-545088.0004659601</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-548426.0905659602</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-544728.7927924802</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-548052.7384924802</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-537324.2839924803</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-504395.6886758003</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-504362.6886758003</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-504362.6886758003</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-508462.4651758003</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-508787.2967758003</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-508787.2967758003</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-508787.2967758003</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-507268.6912758003</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-505656.0687758003</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-515493.5105758003</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-516006.8325758003</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-509538.7168758003</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-509249.8102117003</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-509439.6351117003</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-509190.4889117003</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-516202.4711117003</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-522855.4183117003</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-534629.9193117003</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-538427.2977117003</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-531110.4071117003</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-533054.0330117003</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-524928.5045117002</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-524928.5045117002</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>15218.57581393</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>15218.57581393</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>15218.57581393</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>15465.79341393</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>15465.79341393</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>15465.79341393</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>15480.80991393</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>15480.80991393</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>15480.80991393</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>16194.86421393</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>15569.67561393</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>22416.58111393</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>21930.89951393</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>21927.89951393</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>31385.5301582</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>37156.10631393</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>37156.10631393</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>44320.64511393</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>55169.94931393</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>59865.48901829001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>65644.42371829001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>65805.85241829001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>65785.99361829001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>64785.99361829001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>65120.11101829002</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>65120.11101829002</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>64597.43411829002</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>64597.43411829002</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>63858.64021829002</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>51727.46101829002</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>56084.53271829002</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>61814.51871829002</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>61810.58321829002</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>80558.65311829002</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>80561.65311829002</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>74854.04931829002</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>74856.04931829002</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>74858.04931829002</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>74637.70881829002</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>74637.70881829002</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>74639.70881829002</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>110352.15141829</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>130777.9595879</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>125512.3552879</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>126600.3309879</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>125600.3309879</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>125600.3309879</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>125600.3309879</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>123290.2910879</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>123290.2910879</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>119351.29920169</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>123170.10920169</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>123017.06800169</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>117727.89510169</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>115668.13769501</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-356263.7244163499</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-353670.2632163499</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-353670.2632163499</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-348490.5806163499</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-499201.6867659601</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-547427.4131659601</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-547379.8304659601</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-545088.0004659601</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-548426.0905659602</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-544728.7927924802</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-548052.7384924802</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-537326.0839924803</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-537324.2839924803</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-539663.0865758003</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-504428.6886758003</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-504362.6886758003</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-504362.6886758003</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-508462.4651758003</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-508787.2967758003</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-508787.2967758003</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-508787.2967758003</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-507268.6912758003</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-505656.0687758003</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-515793.5105758003</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-515493.5105758003</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-516006.8325758003</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-516549.0309758003</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-510289.0309758003</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-509538.7168758003</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-507183.8051758003</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-507183.8051758003</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-504107.9369758003</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-506582.9982117002</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-506582.9982117002</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-506720.3894117002</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-506720.3894117002</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-506709.3894117002</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-509064.5364117002</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-510183.5506117002</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-512059.4102117002</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-509249.8102117003</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-509439.6351117003</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-509190.4889117003</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-516202.4711117003</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-522855.4183117003</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-534629.9193117003</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-538427.2977117003</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-531110.4071117003</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-533054.0330117003</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-524928.5045117002</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-524928.5045117002</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-524906.5045117002</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
